--- a/file_upload_flask/uploaded_files/Книга1.xlsx
+++ b/file_upload_flask/uploaded_files/Книга1.xlsx
@@ -1,59 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislav/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\stud105\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61880F6E-B869-1344-B536-CDA003AF047B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="2260" windowWidth="28240" windowHeight="17240" activeTab="3" xr2:uid="{B2F9B437-F22F-DA46-804E-D91E6BF83996}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6030" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>gendalf</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -117,7 +96,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -129,7 +108,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -176,23 +155,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -228,23 +190,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -396,16 +341,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C65950-695C-8940-8F8D-009CCDB842BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>123123</v>
       </c>
     </row>
   </sheetData>
@@ -414,16 +359,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B518F06A-FA2F-B94A-9F08-9F4880E2A612}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2</v>
+        <v>234124</v>
       </c>
     </row>
   </sheetData>
@@ -432,16 +379,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58757FE-91E1-E843-8A94-46ECE1249CBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E14:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>12312412</v>
       </c>
     </row>
   </sheetData>
@@ -450,16 +399,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419D99DC-21EC-3549-B5A6-F9DC49E1CA41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F15:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>4124124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>13214124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1241541251</v>
       </c>
     </row>
   </sheetData>
